--- a/ML-A11.2022.14646-UAS/uas_ml/dataset/dataset_hijab.xlsx
+++ b/ML-A11.2022.14646-UAS/uas_ml/dataset/dataset_hijab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azriel17\Documents\HIJAB\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azriel17\Documents\ML-A11.2022.14646-UAS\uas_ml\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ADE4A8-2214-4366-BB48-5576C746B9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A15CE35-8590-43AC-926E-98330073D3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2F303663-7F2B-4408-8845-5AAFE8BEDC8C}"/>
+    <workbookView xWindow="2736" yWindow="1440" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{2F303663-7F2B-4408-8845-5AAFE8BEDC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar item" sheetId="1" r:id="rId1"/>
